--- a/020_data/2020_PA_boxes.xlsx
+++ b/020_data/2020_PA_boxes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/020_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9322732A-064E-8A47-81A9-6B25AB8CBE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC26AE-D6BD-A242-B733-71FC2AEBADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9860" yWindow="460" windowWidth="18940" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="189">
   <si>
     <t>Status</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>young per box</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1040,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O829"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A853" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D1" colorId="8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D860" sqref="D860"/>
+      <selection pane="bottomLeft" activeCell="O343" sqref="O343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1070,7 @@
     <col min="22" max="22" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>170</v>
       </c>
@@ -1107,8 +1110,11 @@
       <c r="M1" s="13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1129,8 +1135,12 @@
       <c r="H2" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="N2" s="4">
+        <f>E2+F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1164,8 +1174,12 @@
       <c r="M3" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N66" si="0">E3+F3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1187,7 +1201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1209,7 +1223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1253,7 +1267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -1287,8 +1301,12 @@
       <c r="M8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1306,8 +1324,9 @@
       <c r="M9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -1325,8 +1344,9 @@
       <c r="M10">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1344,8 +1364,9 @@
       <c r="M11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1363,8 +1384,9 @@
       <c r="M12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -1398,8 +1420,12 @@
       <c r="M13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1418,8 +1444,9 @@
       <c r="M14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -1438,8 +1465,9 @@
       <c r="M15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -1458,8 +1486,9 @@
       <c r="M16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -1478,8 +1507,9 @@
       <c r="M17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -1513,8 +1543,12 @@
       <c r="M18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -1532,8 +1566,9 @@
       <c r="M19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -1551,8 +1586,9 @@
       <c r="M20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -1570,8 +1606,9 @@
       <c r="M21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1589,8 +1626,9 @@
       <c r="M22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -1624,8 +1662,12 @@
       <c r="M23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -1643,8 +1685,9 @@
       <c r="M24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -1662,8 +1705,9 @@
       <c r="M25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2020</v>
       </c>
@@ -1681,8 +1725,9 @@
       <c r="M26">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -1713,8 +1758,12 @@
       <c r="M27">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -1732,8 +1781,9 @@
       <c r="M28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -1751,8 +1801,9 @@
       <c r="M29">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -1770,8 +1821,9 @@
       <c r="M30">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -1789,8 +1841,9 @@
       <c r="M31">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -1824,8 +1877,12 @@
       <c r="M32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -1843,8 +1900,9 @@
       <c r="M33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -1862,8 +1920,9 @@
       <c r="M34">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -1881,8 +1940,9 @@
       <c r="M35">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -1900,8 +1960,9 @@
       <c r="M36">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -1935,8 +1996,12 @@
       <c r="M37">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1955,8 +2020,9 @@
       <c r="M38">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1975,8 +2041,9 @@
       <c r="M39">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1995,8 +2062,9 @@
       <c r="M40">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -2030,8 +2098,12 @@
       <c r="M41">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -2049,8 +2121,9 @@
       <c r="M42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -2068,8 +2141,9 @@
       <c r="M43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -2087,8 +2161,9 @@
       <c r="M44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -2106,8 +2181,9 @@
       <c r="M45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -2141,8 +2217,12 @@
       <c r="M46">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -2160,8 +2240,9 @@
       <c r="M47">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -2179,8 +2260,9 @@
       <c r="M48">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -2198,8 +2280,9 @@
       <c r="M49">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -2217,8 +2300,9 @@
       <c r="M50">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -2241,8 +2325,12 @@
         <v>43994</v>
       </c>
       <c r="L51" s="19"/>
-    </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N51" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -2276,8 +2364,12 @@
       <c r="M52">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -2296,8 +2388,9 @@
       <c r="M53">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -2316,8 +2409,9 @@
       <c r="M54">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -2336,8 +2430,9 @@
       <c r="M55">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -2371,8 +2466,12 @@
       <c r="M56">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -2390,8 +2489,9 @@
       <c r="M57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -2409,8 +2509,9 @@
       <c r="M58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -2428,8 +2529,9 @@
       <c r="M59">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -2463,8 +2565,12 @@
       <c r="M60">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -2482,8 +2588,9 @@
       <c r="M61">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -2501,8 +2608,9 @@
       <c r="M62">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2020</v>
       </c>
@@ -2520,8 +2628,9 @@
       <c r="M63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -2539,8 +2648,9 @@
       <c r="M64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -2574,8 +2684,12 @@
       <c r="M65">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -2593,8 +2707,9 @@
       <c r="M66">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -2612,8 +2727,9 @@
       <c r="M67">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -2631,8 +2747,9 @@
       <c r="M68">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -2666,8 +2783,12 @@
       <c r="M69">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="4">
+        <f t="shared" ref="N67:N130" si="1">E69+F69</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -2685,8 +2806,9 @@
       <c r="M70">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -2704,8 +2826,9 @@
       <c r="M71">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -2723,8 +2846,9 @@
       <c r="M72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -2759,8 +2883,12 @@
       <c r="M73">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -2779,8 +2907,9 @@
       <c r="M74">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -2799,8 +2928,9 @@
       <c r="M75">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2020</v>
       </c>
@@ -2819,8 +2949,9 @@
       <c r="M76">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2020</v>
       </c>
@@ -2839,8 +2970,9 @@
       <c r="M77">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -2874,8 +3006,12 @@
       <c r="M78">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -2893,8 +3029,9 @@
       <c r="M79">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -2912,8 +3049,9 @@
       <c r="M80">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -2947,8 +3085,12 @@
       <c r="M81">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -2966,8 +3108,9 @@
       <c r="M82">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -2985,8 +3128,9 @@
       <c r="M83">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -3004,8 +3148,9 @@
       <c r="M84">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -3023,8 +3168,9 @@
       <c r="M85">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -3058,8 +3204,12 @@
       <c r="M86">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -3077,8 +3227,9 @@
       <c r="M87">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -3096,8 +3247,9 @@
       <c r="M88">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -3131,8 +3283,12 @@
       <c r="M89">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -3150,8 +3306,9 @@
       <c r="M90">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -3169,8 +3326,9 @@
       <c r="M91">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -3188,8 +3346,9 @@
       <c r="M92">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -3223,8 +3382,12 @@
       <c r="M93">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -3243,8 +3406,9 @@
       <c r="M94">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -3263,8 +3427,9 @@
       <c r="M95">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -3283,8 +3448,9 @@
       <c r="M96">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -3318,8 +3484,12 @@
       <c r="M97">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -3337,8 +3507,9 @@
       <c r="M98">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -3356,8 +3527,9 @@
       <c r="M99">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -3375,8 +3547,9 @@
       <c r="M100">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -3394,8 +3567,9 @@
       <c r="M101">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -3429,8 +3603,12 @@
       <c r="M102">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -3448,8 +3626,9 @@
       <c r="M103">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -3467,8 +3646,9 @@
       <c r="M104">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -3486,8 +3666,9 @@
       <c r="M105">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -3505,8 +3686,9 @@
       <c r="M106">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -3540,8 +3722,12 @@
       <c r="M107">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2020</v>
       </c>
@@ -3559,8 +3745,9 @@
       <c r="M108">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2020</v>
       </c>
@@ -3578,8 +3765,9 @@
       <c r="M109">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2020</v>
       </c>
@@ -3597,8 +3785,9 @@
       <c r="M110">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -3632,8 +3821,12 @@
       <c r="M111">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2020</v>
       </c>
@@ -3651,6 +3844,7 @@
       <c r="M112">
         <v>17</v>
       </c>
+      <c r="N112" s="4"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
@@ -3670,6 +3864,7 @@
       <c r="M113">
         <v>18</v>
       </c>
+      <c r="N113" s="4"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114">
@@ -3689,6 +3884,7 @@
       <c r="M114">
         <v>17</v>
       </c>
+      <c r="N114" s="4"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
@@ -3708,6 +3904,7 @@
       <c r="M115">
         <v>17</v>
       </c>
+      <c r="N115" s="4"/>
     </row>
     <row r="116" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A116">
@@ -3742,6 +3939,10 @@
       </c>
       <c r="M116">
         <v>19</v>
+      </c>
+      <c r="N116" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
@@ -3762,6 +3963,7 @@
       <c r="M117">
         <v>19</v>
       </c>
+      <c r="N117" s="4"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
@@ -3781,6 +3983,7 @@
       <c r="M118">
         <v>19</v>
       </c>
+      <c r="N118" s="4"/>
     </row>
     <row r="119" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A119">
@@ -3815,6 +4018,10 @@
       </c>
       <c r="M119">
         <v>14</v>
+      </c>
+      <c r="N119" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
@@ -3836,6 +4043,7 @@
       <c r="M120">
         <v>14</v>
       </c>
+      <c r="N120" s="4"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
@@ -3856,6 +4064,7 @@
       <c r="M121">
         <v>14</v>
       </c>
+      <c r="N121" s="4"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
@@ -3876,6 +4085,7 @@
       <c r="M122">
         <v>14</v>
       </c>
+      <c r="N122" s="4"/>
     </row>
     <row r="123" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A123">
@@ -3894,6 +4104,10 @@
         <v>0</v>
       </c>
       <c r="L123" s="19"/>
+      <c r="N123" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O123" t="s">
         <v>182</v>
       </c>
@@ -3931,6 +4145,10 @@
       </c>
       <c r="M124">
         <v>14</v>
+      </c>
+      <c r="N124" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
@@ -3951,6 +4169,7 @@
       <c r="M125">
         <v>14</v>
       </c>
+      <c r="N125" s="4"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
@@ -3970,6 +4189,7 @@
       <c r="M126">
         <v>15</v>
       </c>
+      <c r="N126" s="4"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127">
@@ -3989,6 +4209,7 @@
       <c r="M127">
         <v>15</v>
       </c>
+      <c r="N127" s="4"/>
     </row>
     <row r="128" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A128">
@@ -4024,8 +4245,12 @@
       <c r="M128">
         <v>25</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2020</v>
       </c>
@@ -4043,8 +4268,9 @@
       <c r="M129">
         <v>24</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2020</v>
       </c>
@@ -4062,8 +4288,9 @@
       <c r="M130">
         <v>24</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2020</v>
       </c>
@@ -4081,8 +4308,9 @@
       <c r="M131">
         <v>24</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2020</v>
       </c>
@@ -4116,8 +4344,12 @@
       <c r="M132">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="4">
+        <f t="shared" ref="N131:N194" si="2">E132+F132</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2020</v>
       </c>
@@ -4135,8 +4367,9 @@
       <c r="M133">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2020</v>
       </c>
@@ -4154,8 +4387,9 @@
       <c r="M134">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2020</v>
       </c>
@@ -4173,8 +4407,9 @@
       <c r="M135">
         <v>21</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2020</v>
       </c>
@@ -4192,8 +4427,9 @@
       <c r="M136">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2020</v>
       </c>
@@ -4227,8 +4463,12 @@
       <c r="M137">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2020</v>
       </c>
@@ -4246,8 +4486,9 @@
       <c r="M138">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2020</v>
       </c>
@@ -4265,8 +4506,9 @@
       <c r="M139">
         <v>19</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2020</v>
       </c>
@@ -4284,8 +4526,9 @@
       <c r="M140">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2020</v>
       </c>
@@ -4303,8 +4546,9 @@
       <c r="M141">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2020</v>
       </c>
@@ -4338,8 +4582,12 @@
       <c r="M142">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N142" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -4357,8 +4605,9 @@
       <c r="M143">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2020</v>
       </c>
@@ -4376,8 +4625,9 @@
       <c r="M144">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2020</v>
       </c>
@@ -4395,8 +4645,9 @@
       <c r="M145">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2020</v>
       </c>
@@ -4427,8 +4678,12 @@
       <c r="M146">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N146" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2020</v>
       </c>
@@ -4446,8 +4701,9 @@
       <c r="M147">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2020</v>
       </c>
@@ -4465,8 +4721,9 @@
       <c r="M148">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N148" s="4"/>
+    </row>
+    <row r="149" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2020</v>
       </c>
@@ -4484,8 +4741,9 @@
       <c r="M149">
         <v>19</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N149" s="4"/>
+    </row>
+    <row r="150" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -4503,8 +4761,9 @@
       <c r="M150">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N150" s="4"/>
+    </row>
+    <row r="151" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2020</v>
       </c>
@@ -4518,8 +4777,12 @@
         <v>0</v>
       </c>
       <c r="L151" s="19"/>
-    </row>
-    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N151" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2020</v>
       </c>
@@ -4553,8 +4816,12 @@
       <c r="M152">
         <v>22</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2020</v>
       </c>
@@ -4572,8 +4839,9 @@
       <c r="M153">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2020</v>
       </c>
@@ -4591,8 +4859,9 @@
       <c r="M154">
         <v>23</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2020</v>
       </c>
@@ -4610,8 +4879,9 @@
       <c r="M155">
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2020</v>
       </c>
@@ -4629,8 +4899,9 @@
       <c r="M156">
         <v>23</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2020</v>
       </c>
@@ -4664,8 +4935,12 @@
       <c r="M157">
         <v>19</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2020</v>
       </c>
@@ -4683,8 +4958,9 @@
       <c r="M158">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2020</v>
       </c>
@@ -4702,8 +4978,9 @@
       <c r="M159">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2020</v>
       </c>
@@ -4721,8 +4998,9 @@
       <c r="M160">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N160" s="4"/>
+    </row>
+    <row r="161" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2020</v>
       </c>
@@ -4756,8 +5034,12 @@
       <c r="M161">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2020</v>
       </c>
@@ -4775,8 +5057,9 @@
       <c r="M162">
         <v>21</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -4794,8 +5077,9 @@
       <c r="M163">
         <v>21</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -4813,8 +5097,9 @@
       <c r="M164">
         <v>21</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N164" s="4"/>
+    </row>
+    <row r="165" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -4848,8 +5133,12 @@
       <c r="M165">
         <v>21</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -4867,8 +5156,9 @@
       <c r="M166">
         <v>21</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -4886,8 +5176,9 @@
       <c r="M167">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -4905,8 +5196,9 @@
       <c r="M168">
         <v>21</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -4924,8 +5216,9 @@
       <c r="M169">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -4959,8 +5252,12 @@
       <c r="M170">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -4978,8 +5275,9 @@
       <c r="M171">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="4"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -4997,8 +5295,9 @@
       <c r="M172">
         <v>14</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" s="4"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -5016,8 +5315,9 @@
       <c r="M173">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="4"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -5035,8 +5335,9 @@
       <c r="M174">
         <v>13</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N174" s="4"/>
+    </row>
+    <row r="175" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -5070,8 +5371,12 @@
       <c r="M175">
         <v>19</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -5089,8 +5394,9 @@
       <c r="M176">
         <v>19</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="4"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2020</v>
       </c>
@@ -5108,8 +5414,9 @@
       <c r="M177">
         <v>19</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="4"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2020</v>
       </c>
@@ -5127,8 +5434,9 @@
       <c r="M178">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2020</v>
       </c>
@@ -5159,8 +5467,12 @@
       <c r="M179">
         <v>23</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2020</v>
       </c>
@@ -5178,8 +5490,9 @@
       <c r="M180">
         <v>23</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="4"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2020</v>
       </c>
@@ -5197,8 +5510,9 @@
       <c r="M181">
         <v>23</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="4"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2020</v>
       </c>
@@ -5216,8 +5530,9 @@
       <c r="M182">
         <v>23</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N182" s="4"/>
+    </row>
+    <row r="183" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2020</v>
       </c>
@@ -5251,8 +5566,12 @@
       <c r="M183">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2020</v>
       </c>
@@ -5270,8 +5589,9 @@
       <c r="M184">
         <v>18</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="4"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2020</v>
       </c>
@@ -5289,8 +5609,9 @@
       <c r="M185">
         <v>18</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="4"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2020</v>
       </c>
@@ -5308,8 +5629,9 @@
       <c r="M186">
         <v>18</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N186" s="4"/>
+    </row>
+    <row r="187" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2020</v>
       </c>
@@ -5326,8 +5648,12 @@
         <v>0</v>
       </c>
       <c r="L187" s="19"/>
-    </row>
-    <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N187" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2020</v>
       </c>
@@ -5361,8 +5687,12 @@
       <c r="M188">
         <v>17</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -5380,8 +5710,9 @@
       <c r="M189">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="4"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -5399,8 +5730,9 @@
       <c r="M190">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="4"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -5418,8 +5750,9 @@
       <c r="M191">
         <v>15</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="4"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2020</v>
       </c>
@@ -5437,8 +5770,9 @@
       <c r="M192">
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N192" s="4"/>
+    </row>
+    <row r="193" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -5472,8 +5806,12 @@
       <c r="M193">
         <v>18</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -5491,8 +5829,9 @@
       <c r="M194">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="4"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -5510,8 +5849,9 @@
       <c r="M195">
         <v>18</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="4"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -5529,8 +5869,9 @@
       <c r="M196">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N196" s="4"/>
+    </row>
+    <row r="197" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -5564,8 +5905,12 @@
       <c r="M197">
         <v>17</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="4">
+        <f t="shared" ref="N195:N258" si="3">E197+F197</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2020</v>
       </c>
@@ -5583,8 +5928,9 @@
       <c r="M198">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="4"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -5602,8 +5948,9 @@
       <c r="M199">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="4"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2020</v>
       </c>
@@ -5621,8 +5968,9 @@
       <c r="M200">
         <v>17</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="4"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2020</v>
       </c>
@@ -5640,8 +5988,9 @@
       <c r="M201">
         <v>17</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="N201" s="4"/>
+    </row>
+    <row r="202" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2020</v>
       </c>
@@ -5675,8 +6024,12 @@
       <c r="M202">
         <v>23</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2020</v>
       </c>
@@ -5694,8 +6047,9 @@
       <c r="M203">
         <v>23</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N203" s="4"/>
+    </row>
+    <row r="204" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2020</v>
       </c>
@@ -5729,8 +6083,12 @@
       <c r="M204">
         <v>15</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2020</v>
       </c>
@@ -5748,8 +6106,9 @@
       <c r="M205">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" s="4"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -5767,8 +6126,9 @@
       <c r="M206">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="4"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2020</v>
       </c>
@@ -5786,8 +6146,9 @@
       <c r="M207">
         <v>14</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N207" s="4"/>
+    </row>
+    <row r="208" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2020</v>
       </c>
@@ -5816,8 +6177,12 @@
       <c r="M208">
         <v>19</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2020</v>
       </c>
@@ -5833,8 +6198,9 @@
       <c r="M209">
         <v>19</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" s="4"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2020</v>
       </c>
@@ -5850,8 +6216,9 @@
       <c r="M210">
         <v>19</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" s="4"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2020</v>
       </c>
@@ -5867,8 +6234,9 @@
       <c r="M211">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="4"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2020</v>
       </c>
@@ -5884,8 +6252,9 @@
       <c r="M212">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N212" s="4"/>
+    </row>
+    <row r="213" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2020</v>
       </c>
@@ -5919,8 +6288,12 @@
       <c r="M213">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -5938,8 +6311,9 @@
       <c r="M214">
         <v>19</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="4"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -5957,8 +6331,9 @@
       <c r="M215">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="N215" s="4"/>
+    </row>
+    <row r="216" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2020</v>
       </c>
@@ -5992,8 +6367,12 @@
       <c r="M216">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -6011,8 +6390,9 @@
       <c r="M217">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="4"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2020</v>
       </c>
@@ -6030,8 +6410,9 @@
       <c r="M218">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="4"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2020</v>
       </c>
@@ -6049,8 +6430,9 @@
       <c r="M219">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="4"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2020</v>
       </c>
@@ -6068,8 +6450,9 @@
       <c r="M220">
         <v>19</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N220" s="4"/>
+    </row>
+    <row r="221" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2020</v>
       </c>
@@ -6103,8 +6486,12 @@
       <c r="M221">
         <v>28</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N221" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2020</v>
       </c>
@@ -6138,8 +6525,12 @@
       <c r="M222">
         <v>24</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2020</v>
       </c>
@@ -6157,8 +6548,9 @@
       <c r="M223">
         <v>25</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="4"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2020</v>
       </c>
@@ -6176,8 +6568,9 @@
       <c r="M224">
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N224" s="4"/>
+    </row>
+    <row r="225" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2020</v>
       </c>
@@ -6211,8 +6604,12 @@
       <c r="M225">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2020</v>
       </c>
@@ -6230,8 +6627,9 @@
       <c r="M226">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" s="4"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2020</v>
       </c>
@@ -6249,8 +6647,9 @@
       <c r="M227">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" s="4"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2020</v>
       </c>
@@ -6268,8 +6667,9 @@
       <c r="M228">
         <v>14</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N228" s="4"/>
+    </row>
+    <row r="229" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2020</v>
       </c>
@@ -6287,8 +6687,9 @@
       <c r="M229">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N229" s="4"/>
+    </row>
+    <row r="230" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2020</v>
       </c>
@@ -6322,8 +6723,12 @@
       <c r="M230">
         <v>13</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2020</v>
       </c>
@@ -6341,8 +6746,9 @@
       <c r="M231">
         <v>13</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" s="4"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2020</v>
       </c>
@@ -6360,8 +6766,9 @@
       <c r="M232">
         <v>14</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" s="4"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2020</v>
       </c>
@@ -6379,8 +6786,9 @@
       <c r="M233">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N233" s="4"/>
+    </row>
+    <row r="234" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2020</v>
       </c>
@@ -6414,8 +6822,12 @@
       <c r="M234">
         <v>22</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2020</v>
       </c>
@@ -6433,8 +6845,9 @@
       <c r="M235">
         <v>21</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" s="4"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2020</v>
       </c>
@@ -6452,8 +6865,9 @@
       <c r="M236">
         <v>22</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" s="4"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2020</v>
       </c>
@@ -6471,8 +6885,9 @@
       <c r="M237">
         <v>22</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" s="4"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2020</v>
       </c>
@@ -6490,8 +6905,9 @@
       <c r="M238">
         <v>22</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N238" s="4"/>
+    </row>
+    <row r="239" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2020</v>
       </c>
@@ -6525,8 +6941,12 @@
       <c r="M239">
         <v>20</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2020</v>
       </c>
@@ -6544,8 +6964,9 @@
       <c r="M240">
         <v>21</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240" s="4"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2020</v>
       </c>
@@ -6563,8 +6984,9 @@
       <c r="M241">
         <v>21</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" s="4"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -6582,8 +7004,9 @@
       <c r="M242">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N242" s="4"/>
+    </row>
+    <row r="243" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2020</v>
       </c>
@@ -6617,8 +7040,12 @@
       <c r="M243">
         <v>28</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N243" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2020</v>
       </c>
@@ -6652,8 +7079,12 @@
       <c r="M244">
         <v>24</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2020</v>
       </c>
@@ -6671,8 +7102,9 @@
       <c r="M245">
         <v>24</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" s="4"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2020</v>
       </c>
@@ -6690,8 +7122,9 @@
       <c r="M246">
         <v>24</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N246" s="4"/>
+    </row>
+    <row r="247" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -6725,8 +7158,12 @@
       <c r="M247">
         <v>17</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2020</v>
       </c>
@@ -6744,8 +7181,9 @@
       <c r="M248">
         <v>17</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248" s="4"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -6763,8 +7201,9 @@
       <c r="M249">
         <v>17</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" s="4"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2020</v>
       </c>
@@ -6782,8 +7221,9 @@
       <c r="M250">
         <v>17</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N250" s="4"/>
+    </row>
+    <row r="251" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2020</v>
       </c>
@@ -6817,8 +7257,12 @@
       <c r="M251">
         <v>18</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2020</v>
       </c>
@@ -6836,8 +7280,9 @@
       <c r="M252">
         <v>18</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252" s="4"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2020</v>
       </c>
@@ -6855,8 +7300,9 @@
       <c r="M253">
         <v>17</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253" s="4"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2020</v>
       </c>
@@ -6874,8 +7320,9 @@
       <c r="M254">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254" s="4"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2020</v>
       </c>
@@ -6893,8 +7340,9 @@
       <c r="M255">
         <v>17</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N255" s="4"/>
+    </row>
+    <row r="256" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2020</v>
       </c>
@@ -6928,8 +7376,12 @@
       <c r="M256">
         <v>18</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2020</v>
       </c>
@@ -6947,8 +7399,9 @@
       <c r="M257">
         <v>18</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257" s="4"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2020</v>
       </c>
@@ -6966,8 +7419,9 @@
       <c r="M258">
         <v>18</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N258" s="4"/>
+    </row>
+    <row r="259" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2020</v>
       </c>
@@ -7001,8 +7455,12 @@
       <c r="M259">
         <v>17</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259" s="4">
+        <f t="shared" ref="N259:N322" si="4">E259+F259</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2020</v>
       </c>
@@ -7020,8 +7478,9 @@
       <c r="M260">
         <v>18</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" s="4"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2020</v>
       </c>
@@ -7039,8 +7498,9 @@
       <c r="M261">
         <v>18</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261" s="4"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2020</v>
       </c>
@@ -7058,8 +7518,9 @@
       <c r="M262">
         <v>14</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" s="4"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2020</v>
       </c>
@@ -7077,8 +7538,9 @@
       <c r="M263">
         <v>18</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N263" s="4"/>
+    </row>
+    <row r="264" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2020</v>
       </c>
@@ -7112,8 +7574,12 @@
       <c r="M264">
         <v>20</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2020</v>
       </c>
@@ -7131,8 +7597,9 @@
       <c r="M265">
         <v>23</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265" s="4"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2020</v>
       </c>
@@ -7150,8 +7617,9 @@
       <c r="M266">
         <v>24</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" s="4"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2020</v>
       </c>
@@ -7169,8 +7637,9 @@
       <c r="M267">
         <v>24</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267" s="4"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2020</v>
       </c>
@@ -7188,8 +7657,9 @@
       <c r="M268">
         <v>24</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N268" s="4"/>
+    </row>
+    <row r="269" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2020</v>
       </c>
@@ -7223,8 +7693,12 @@
       <c r="M269">
         <v>15</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2020</v>
       </c>
@@ -7242,8 +7716,9 @@
       <c r="M270">
         <v>15</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" s="4"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2020</v>
       </c>
@@ -7261,8 +7736,9 @@
       <c r="M271">
         <v>15</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271" s="4"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -7280,8 +7756,9 @@
       <c r="M272">
         <v>15</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N272" s="4"/>
+    </row>
+    <row r="273" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2020</v>
       </c>
@@ -7298,8 +7775,12 @@
         <v>0</v>
       </c>
       <c r="L273" s="19"/>
-    </row>
-    <row r="274" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N273" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -7333,8 +7814,12 @@
       <c r="M274">
         <v>20</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N274" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2020</v>
       </c>
@@ -7368,8 +7853,12 @@
       <c r="M275">
         <v>14</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2020</v>
       </c>
@@ -7387,8 +7876,9 @@
       <c r="M276">
         <v>14</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276" s="4"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2020</v>
       </c>
@@ -7406,8 +7896,9 @@
       <c r="M277">
         <v>14</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277" s="4"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2020</v>
       </c>
@@ -7425,8 +7916,9 @@
       <c r="M278">
         <v>14</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N278" s="4"/>
+    </row>
+    <row r="279" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2020</v>
       </c>
@@ -7460,8 +7952,12 @@
       <c r="M279">
         <v>21</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2020</v>
       </c>
@@ -7479,8 +7975,9 @@
       <c r="M280">
         <v>21</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280" s="4"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2020</v>
       </c>
@@ -7498,8 +7995,9 @@
       <c r="M281">
         <v>21</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281" s="4"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2020</v>
       </c>
@@ -7517,8 +8015,9 @@
       <c r="M282">
         <v>21</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N282" s="4"/>
+    </row>
+    <row r="283" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2020</v>
       </c>
@@ -7552,8 +8051,12 @@
       <c r="M283">
         <v>17</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2020</v>
       </c>
@@ -7571,8 +8074,9 @@
       <c r="M284">
         <v>17</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" s="4"/>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2020</v>
       </c>
@@ -7590,8 +8094,9 @@
       <c r="M285">
         <v>18</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="4"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2020</v>
       </c>
@@ -7609,8 +8114,9 @@
       <c r="M286">
         <v>18</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N286" s="4"/>
+    </row>
+    <row r="287" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2020</v>
       </c>
@@ -7644,8 +8150,12 @@
       <c r="M287">
         <v>18</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2020</v>
       </c>
@@ -7663,8 +8173,9 @@
       <c r="M288">
         <v>17</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288" s="4"/>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2020</v>
       </c>
@@ -7682,8 +8193,9 @@
       <c r="M289">
         <v>17</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" s="4"/>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2020</v>
       </c>
@@ -7701,8 +8213,9 @@
       <c r="M290">
         <v>18</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290" s="4"/>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2020</v>
       </c>
@@ -7720,8 +8233,9 @@
       <c r="M291">
         <v>18</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N291" s="4"/>
+    </row>
+    <row r="292" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2020</v>
       </c>
@@ -7755,8 +8269,12 @@
       <c r="M292">
         <v>15</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2020</v>
       </c>
@@ -7774,8 +8292,9 @@
       <c r="M293">
         <v>16</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" s="4"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2020</v>
       </c>
@@ -7793,8 +8312,9 @@
       <c r="M294">
         <v>15</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294" s="4"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2020</v>
       </c>
@@ -7812,8 +8332,9 @@
       <c r="M295">
         <v>16</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N295" s="4"/>
+    </row>
+    <row r="296" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2020</v>
       </c>
@@ -7847,8 +8368,12 @@
       <c r="M296">
         <v>18</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2020</v>
       </c>
@@ -7867,8 +8392,9 @@
       <c r="M297">
         <v>18</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297" s="4"/>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2020</v>
       </c>
@@ -7887,8 +8413,9 @@
       <c r="M298">
         <v>18</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298" s="4"/>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2020</v>
       </c>
@@ -7907,8 +8434,9 @@
       <c r="M299">
         <v>17</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N299" s="4"/>
+    </row>
+    <row r="300" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2020</v>
       </c>
@@ -7942,8 +8470,12 @@
       <c r="M300">
         <v>19</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2020</v>
       </c>
@@ -7962,8 +8494,9 @@
       <c r="M301">
         <v>19</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301" s="4"/>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2020</v>
       </c>
@@ -7982,8 +8515,9 @@
       <c r="M302">
         <v>19</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302" s="4"/>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2020</v>
       </c>
@@ -8002,8 +8536,9 @@
       <c r="M303">
         <v>19</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="N303" s="4"/>
+    </row>
+    <row r="304" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2020</v>
       </c>
@@ -8020,8 +8555,12 @@
         <v>0</v>
       </c>
       <c r="L304" s="19"/>
-    </row>
-    <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N304" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2020</v>
       </c>
@@ -8055,8 +8594,12 @@
       <c r="M305">
         <v>18</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2020</v>
       </c>
@@ -8074,8 +8617,9 @@
       <c r="M306">
         <v>17</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306" s="4"/>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2020</v>
       </c>
@@ -8093,8 +8637,9 @@
       <c r="M307">
         <v>18</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307" s="4"/>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2020</v>
       </c>
@@ -8112,8 +8657,9 @@
       <c r="M308">
         <v>17</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308" s="4"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2020</v>
       </c>
@@ -8131,8 +8677,9 @@
       <c r="M309">
         <v>18</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N309" s="4"/>
+    </row>
+    <row r="310" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2020</v>
       </c>
@@ -8166,8 +8713,12 @@
       <c r="M310">
         <v>21</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2020</v>
       </c>
@@ -8185,8 +8736,9 @@
       <c r="M311">
         <v>21</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311" s="4"/>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2020</v>
       </c>
@@ -8204,8 +8756,9 @@
       <c r="M312">
         <v>21</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312" s="4"/>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2020</v>
       </c>
@@ -8223,8 +8776,9 @@
       <c r="M313">
         <v>21</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N313" s="4"/>
+    </row>
+    <row r="314" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2020</v>
       </c>
@@ -8258,8 +8812,12 @@
       <c r="M314">
         <v>17</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2020</v>
       </c>
@@ -8277,8 +8835,9 @@
       <c r="M315">
         <v>17</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315" s="4"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2020</v>
       </c>
@@ -8296,8 +8855,9 @@
       <c r="M316">
         <v>17</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316" s="4"/>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2020</v>
       </c>
@@ -8315,8 +8875,9 @@
       <c r="M317">
         <v>17</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N317" s="4"/>
+    </row>
+    <row r="318" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2020</v>
       </c>
@@ -8348,8 +8909,12 @@
       <c r="M318">
         <v>18</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2020</v>
       </c>
@@ -8365,8 +8930,9 @@
       <c r="M319">
         <v>20</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319" s="4"/>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2020</v>
       </c>
@@ -8382,8 +8948,9 @@
       <c r="M320">
         <v>18</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N320" s="4"/>
+    </row>
+    <row r="321" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2020</v>
       </c>
@@ -8417,8 +8984,12 @@
       <c r="M321">
         <v>17</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2020</v>
       </c>
@@ -8436,8 +9007,9 @@
       <c r="M322">
         <v>17</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322" s="4"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2020</v>
       </c>
@@ -8455,8 +9027,9 @@
       <c r="M323">
         <v>16</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323" s="4"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2020</v>
       </c>
@@ -8474,8 +9047,9 @@
       <c r="M324">
         <v>17</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N324" s="4"/>
+    </row>
+    <row r="325" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2020</v>
       </c>
@@ -8509,8 +9083,12 @@
       <c r="M325">
         <v>17</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325" s="4">
+        <f t="shared" ref="N323:N339" si="5">E325+F325</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2020</v>
       </c>
@@ -8529,8 +9107,9 @@
       <c r="M326">
         <v>17</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326" s="4"/>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2020</v>
       </c>
@@ -8549,8 +9128,9 @@
       <c r="M327">
         <v>17</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327" s="4"/>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2020</v>
       </c>
@@ -8569,8 +9149,9 @@
       <c r="M328">
         <v>16</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328" s="4"/>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2020</v>
       </c>
@@ -8589,8 +9170,9 @@
       <c r="M329">
         <v>17</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="N329" s="4"/>
+    </row>
+    <row r="330" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2020</v>
       </c>
@@ -8607,8 +9189,12 @@
         <v>0</v>
       </c>
       <c r="L330" s="19"/>
-    </row>
-    <row r="331" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N330" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2020</v>
       </c>
@@ -8642,8 +9228,12 @@
       <c r="M331">
         <v>21</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2020</v>
       </c>
@@ -8661,8 +9251,9 @@
       <c r="M332">
         <v>21</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332" s="4"/>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2020</v>
       </c>
@@ -8680,8 +9271,9 @@
       <c r="M333">
         <v>20</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N333" s="4"/>
+    </row>
+    <row r="334" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2020</v>
       </c>
@@ -8699,8 +9291,9 @@
       <c r="M334">
         <v>20</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334" s="4"/>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2020</v>
       </c>
@@ -8718,8 +9311,9 @@
       <c r="M335">
         <v>21</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N335" s="4"/>
+    </row>
+    <row r="336" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2020</v>
       </c>
@@ -8753,8 +9347,12 @@
       <c r="M336">
         <v>17</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2020</v>
       </c>
@@ -8772,8 +9370,9 @@
       <c r="M337">
         <v>17</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" s="4"/>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2020</v>
       </c>
@@ -8791,8 +9390,9 @@
       <c r="M338">
         <v>17</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="4"/>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2020</v>
       </c>
@@ -8810,6 +9410,7 @@
       <c r="M339">
         <v>17</v>
       </c>
+      <c r="N339" s="4"/>
     </row>
     <row r="829" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J829" t="s">
@@ -8826,6 +9427,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017D384145B2B87469E8166EBC5A72360" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4823ed4c2e4f14b1c0d6c2c39bd034d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="94878cb0-4f6a-4028-8116-9ba0da8e57fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32da94025cecf02f0ecc5e348b32922b" ns3:_="">
     <xsd:import namespace="94878cb0-4f6a-4028-8116-9ba0da8e57fe"/>
@@ -9009,22 +9625,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A754A4-8E78-4B6C-9809-C1672BAF8ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6337D982-D9CF-4D07-953D-B708CB6DF118}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A5BB162-5DDC-442D-B244-2A951BECAE14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9040,21 +9658,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6337D982-D9CF-4D07-953D-B708CB6DF118}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A754A4-8E78-4B6C-9809-C1672BAF8ECD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>